--- a/PPDS_AIMM 93 - Squad 4.xlsx
+++ b/PPDS_AIMM 93 - Squad 4.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\AIMM\Sprint 93\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F921125\Desktop\AIMM\Sprint 93\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D7C05-B62C-4E92-9B7E-ED676F97A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AAB9F8-CAF9-479B-8FF2-30C84DA80AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="607" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Informações Gerais" sheetId="3" r:id="rId1"/>
-    <sheet name="Funcionalidades Impactadas (2)" sheetId="11" r:id="rId2"/>
-    <sheet name="Funcionalidades Impactadas" sheetId="9" r:id="rId3"/>
-    <sheet name="Demais Artefatos" sheetId="2" r:id="rId4"/>
-    <sheet name="Histórico de Versão" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="Funcionalidades Impactadas" sheetId="9" r:id="rId2"/>
+    <sheet name="Demais Artefatos" sheetId="2" r:id="rId3"/>
+    <sheet name="Histórico de Versão" sheetId="10" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Funcionalidades" localSheetId="1">'Funcionalidades Impactadas (2)'!$A:$A</definedName>
     <definedName name="Funcionalidades">'Funcionalidades Impactadas'!$A:$A</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Demais Artefatos'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Demais Artefatos'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,40 +49,23 @@
   <commentList>
     <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informar a sigla do sistema conforme SIAPP.</t>
-        </r>
       </text>
     </comment>
     <comment ref="F6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informar o código SIAPP do sistema.</t>
-        </r>
       </text>
     </comment>
     <comment ref="B20" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Apresentar as justificativas das inclusões, exclusões ou alterações de produtos de trabalho referentes à solicitação de mudança, caso haja ocorrência.
@@ -82,7 +76,6 @@
 - as informações pertinentes à ocorrência de acertos de serviços executados por fornecedores e terceiros em garantia, durante o atendimento da demanda.
 - a versão do Processo Padrão de Desenvolvimento de Sistemas (PPDS.CAIXA)  objeto da manutenção e o registro da decisão gerencial quanto a utilização de templates de versões anteriores. 
 Este item é opcional. Só incluído quando aplicável.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -92,319 +85,98 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A072664C-3096-4922-8636-81996A0ECBA6}</author>
-    <author>tc={C940C3E4-4D9F-46D0-B234-1BADFB8FA04C}</author>
-    <author>tc={D794F76F-FABA-4F42-8DB0-9A0CBAE307B4}</author>
-    <author>tc={6A9BFD52-E62B-4934-B4D7-FEE0A53AD7EE}</author>
-    <author>tc={AE51634A-12A0-46A3-B574-E3B08E510CF4}</author>
-    <author>tc={4B2092BF-C0BC-4C4A-8ABF-3A4EB8D7A04A}</author>
-    <author>tc={86F89E1D-26C5-46F1-8490-D4C91E21D6D2}</author>
-    <author>tc={4D842DF6-0E24-4FA5-8559-8F9DC95A00DD}</author>
-    <author>tc={02041CEC-C68E-403D-84D6-8EC1A94EBA2D}</author>
-    <author>tc={B445304C-117C-4124-8E2E-EAF809E30D28}</author>
+    <author>tc={A072664C-3096-4923-8636-81996A0ECBA6}</author>
+    <author>tc={C940C3E4-4D9F-46D1-B234-1BADFB8FA04C}</author>
+    <author>tc={D794F76F-FABA-4F43-8DB0-9A0CBAE307B4}</author>
+    <author>tc={6A9BFD52-E62B-4935-B4D7-FEE0A53AD7EE}</author>
+    <author>tc={AE51634A-12A0-46A4-B574-E3B08E510CF4}</author>
+    <author>tc={4B2092BF-C0BC-4C4B-8ABF-3A4EB8D7A04A}</author>
+    <author>tc={86F89E1D-26C5-46F2-8490-D4C91E21D6D2}</author>
+    <author>tc={4D842DF6-0E24-4FA6-8559-8F9DC95A00DD}</author>
+    <author>tc={02041CEC-C68E-403E-84D6-8EC1A94EBA2D}</author>
+    <author>tc={B445304C-117C-4125-8E2E-EAF809E30D28}</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{16C06CD7-9152-4092-A9F4-92188CD90E35}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informar o nome da funcionalidade, conforme registrada no requisitos/caso de uso. Caso não haja requisito/caso de uso, identificar a funcionalidade conforme entendimento do gestor (visão de negócio).</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{5E78376C-205B-4B2A-A994-87F50802F4FE}">
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Indicar se a funcionalidade está sendo incluída ( I ), alterada ( A ), excluída ( E ) ou (EV) envolvido.
 Nos casos de atendimento de defeitos, selecionar a opção D.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="2" shapeId="0" xr:uid="{A8DDB1D9-89B3-42A6-8751-86CBCA4E18FF}">
+    <comment ref="C3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Relatar quais dos itens relacionados abaixo são afetados pela demanda: E/S, RN/LP, EAD e RNF.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="3" shapeId="0" xr:uid="{C1E3CA55-1945-4E6F-AF36-E62A0729E093}">
+    <comment ref="D3" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Descrever de forma clara e objetiva a mudança que será realizada na funcionalidade.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="4" shapeId="0" xr:uid="{6D48426A-22F6-4536-A3ED-18AE4775E58B}">
+    <comment ref="E3" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informar o nome do caso de uso, estória, registro de requisito funcional ou outro artefato de requisito afetado pela mudança.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="5" shapeId="0" xr:uid="{3FB8F704-55F3-48DD-8EE6-31BE994DE97B}">
+    <comment ref="F3" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Preencher com o endereço lógico ou físico do artefato da funcionalidade.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="6" shapeId="0" xr:uid="{6D744D68-4268-4A9E-888A-D29159D44BB2}">
+    <comment ref="G3" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informar a versão do artefato publicada no repositório de controle de configuração do sistema.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="7" shapeId="0" xr:uid="{BD0BFE41-F5EB-4780-8AAB-8138279CBA11}">
+    <comment ref="H3" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Informar se o artefato (caso de uso ou requisito) está sendo Incluído (I), Alterado (A) ou  Excluído (E).
 Neste contexto, o artefato se trata do documento físico.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="8" shapeId="0" xr:uid="{E8D4F0BD-CE1F-411C-9144-7D0F7100A27A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Especificar os nomes das tabelas afetadas pela mudança que ocorrerá na funcionalidade.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="9" shapeId="0" xr:uid="{1ACC4DA5-5AB8-4FA0-ADEA-7AFD50DF4D14}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Especificar o tipo de alteração física realizada na base de dados: Inclusão (I), Alteração (A), Exclusão (E) de tabelas ou em sua estrutura (inclusão, alteração ou exclusão de atributos).</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={A072664C-3096-4922-8636-81996A0ECBA6}</author>
-    <author>tc={C940C3E4-4D9F-46D0-B234-1BADFB8FA04C}</author>
-    <author>tc={D794F76F-FABA-4F42-8DB0-9A0CBAE307B4}</author>
-    <author>tc={6A9BFD52-E62B-4934-B4D7-FEE0A53AD7EE}</author>
-    <author>tc={AE51634A-12A0-46A3-B574-E3B08E510CF4}</author>
-    <author>tc={4B2092BF-C0BC-4C4A-8ABF-3A4EB8D7A04A}</author>
-    <author>tc={86F89E1D-26C5-46F1-8490-D4C91E21D6D2}</author>
-    <author>tc={4D842DF6-0E24-4FA5-8559-8F9DC95A00DD}</author>
-    <author>tc={02041CEC-C68E-403D-84D6-8EC1A94EBA2D}</author>
-    <author>tc={B445304C-117C-4124-8E2E-EAF809E30D28}</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Informar o nome da funcionalidade, conforme registrada no requisitos/caso de uso. Caso não haja requisito/caso de uso, identificar a funcionalidade conforme entendimento do gestor (visão de negócio).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Indicar se a funcionalidade está sendo incluída ( I ), alterada ( A ), excluída ( E ) ou (EV) envolvido.
-Nos casos de atendimento de defeitos, selecionar a opção D.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Relatar quais dos itens relacionados abaixo são afetados pela demanda: E/S, RN/LP, EAD e RNF.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Descrever de forma clara e objetiva a mudança que será realizada na funcionalidade.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Informar o nome do caso de uso, estória, registro de requisito funcional ou outro artefato de requisito afetado pela mudança.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Preencher com o endereço lógico ou físico do artefato da funcionalidade.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Informar a versão do artefato publicada no repositório de controle de configuração do sistema.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Informar se o artefato (caso de uso ou requisito) está sendo Incluído (I), Alterado (A) ou  Excluído (E).
-Neste contexto, o artefato se trata do documento físico.</t>
-        </r>
       </text>
     </comment>
     <comment ref="I3" authorId="8" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Especificar os nomes das tabelas afetadas pela mudança que ocorrerá na funcionalidade.</t>
-        </r>
       </text>
     </comment>
     <comment ref="J3" authorId="9" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Especificar o tipo de alteração física realizada na base de dados: Inclusão (I), Alteração (A), Exclusão (E) de tabelas ou em sua estrutura (inclusão, alteração ou exclusão de atributos).</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -420,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="118">
   <si>
     <t>ANÁLISE DE IMPACTO DA MUDANÇA PARA MANUTENÇÃO -  AIMM</t>
   </si>
@@ -616,546 +388,85 @@
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">E/S
-RN/LP
-EAD
+    <t xml:space="preserve">SIGCX / Coleções / Coleções de Sprints / SIGCX - Squad 4 / Sprint 93
 </t>
   </si>
   <si>
-    <t>Sistema Externo (SIMTX)</t>
-  </si>
-  <si>
-    <t>Recupera os Campos:
-- Informações do recebedor
-- Informações do cliente
-- Informações do pagador
-- Informações adicionais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGCX / Coleções / Coleções de Sprints / SIGCX - Squad 4 / Sprint 92
-</t>
-  </si>
-  <si>
-    <t>SPRINT 92_LB04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E/S
-RN/LP
-</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de cancelamento da Pendência do Cancelamento da Autorização Ativa do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de autorização da Pendência da Rejeição da Autorização Pendente do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de cancelamento da Pendência da Rejeição da Autorização Pendente do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de autorização da Pendência da Confirmação da Autorização Pendente do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de cancelamento da Pendência da Confirmação da Autorização Pendente do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagador</t>
-  </si>
-  <si>
-    <t>Pix - Extrato e Devolução</t>
-  </si>
-  <si>
-    <t>Open Finance - Movimentações Automáticas</t>
-  </si>
-  <si>
-    <t>Autorização de Pix Automático</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de  inclusão da Pendência para o Cancelamento do Pagamento Agendado do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir detalhamento da Pendência do Cancelamento da Autorização Ativa do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Recuperar os campos abaixo do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})
-- Informações do recebedor 
-- Informações do cliente
-- Informações do pagador
-- Informações Adicionais</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir cancelamento da Pendência do Cancelamento da Autorização Ativa do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação (Cancelamento) através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir autorização da Pendência da Rejeição da Autorização Pendente do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao}/assinaturas)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir detalhamento da Pendência da Rejeição da Autorização Pendente do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Recuperar os campos abaixo do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})
-- Informações do recebedor 
-- Informações do cliente
-- Informações do pagador
-- Informações Adicionais</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir cancelamento da Pendência da Rejeição da Autorização Pendente do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação (Cancelamento) através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir inclusão da Pendência da Confirmação de Autorização Pendente do Pix Automático através do fluxo de Autorizações Pendentes do Pix Automático, com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /pix/automatico-autorizacoes/v1/autorizacoes/confirmar)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir autorização da Pendência da Confirmação da Autorização Pendente do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao}/assinaturas)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir detalhamento da Pendência da Confirmação da Autorização Pendente do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Recuperar os campos abaixo do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})
-- Informações do recebedor 
-- Informações do cliente
-- Informações do pagador
-- Informações Adicionais</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir cancelamento da Pendência da Confirmação da Autorização Pendente do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação (Cancelamento) através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir inclusão da Pendência para o Cancelamento do Pagamento Agendado do Pix Automático, com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /pix/pix-automático/agendamento/cancelar)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir autorização da Pendência do Cancelamento do Agendamento do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao}/assinaturas)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir inclusão da Pendência para Pagamento e/ou Oferta de Recorrência via leitura de QR Code, com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /pix/automatico-autorizacoes/v1/autorizacoes/cadastrar)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de inclusão da Pendência para Pagamento e/ou Oferta de Recorrência via leitura de QR Code.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir autorização da Pendência do Pagamento e/ou Oferta de Recorrência via leitura de QR Code com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao}/assinaturas)</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de  autorização da Pendência do Pagamento e/ou Oferta de Recorrência via leitura de QR Code.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir detalhamento da Pendência do Pagamento e/ou Oferta de Recorrência via leitura de QR Code do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Recuperar os campos abaixo do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})
-- Informações do recebedor 
-- Informações do cliente
-- Informações do pagador
-- Informações Adicionais</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de inclusão de Pendência de Cancelamento de Autorização Ativa do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante da inclusão de Pendência da Rejeição de Autorização Pendente do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de inclusão da Pendência da Confirmação de Autorização Pendente do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de autorização da Pendência do Cancelamento do Agendamento do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir detalhamento da Pendência do Cancelamento do Agendamento do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Recuperar os campos abaixo do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})
-- Informações do recebedor 
-- Informações do cliente
-- Informações do pagador
-- Informações Adicionais</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir cancelar a Pendência do Cancelamento do Agendamento do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação (Cancelamento) através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir cancelar a Pendência do Pagamento e/ou Oferta de Recorrência via leitura de QR Code do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação (Cancelamento) através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao})</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de  cancelamento de Pendência do Pagamento e/ou Oferta de Recorrência via leitura de QR Code do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Alterar funcionalidade para:
-Desabilitar todos os botões de transação da jornada do Open Finance - Movimentações Automática, para os perfis de usuário Digitador e Consultor.</t>
-  </si>
-  <si>
-    <t>Alterar funcionalidade para:
-Desabilitar todos os botões de transação da jornada do Pix - Extrato e Devolução,.para os perfis de usuário Digitador e Consultor.</t>
-  </si>
-  <si>
-    <t>Alterar funcionalidade para:
-Desabilitar todos os botões de transação da jornada do Pix Automático Pagador, para os perfis de usuário Digitador e Consultor.</t>
+    <t>SPRINT 93_LB04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pix Automático - Autorizar Pendências </t>
+  </si>
+  <si>
+    <t>Pix Automático - Consultar Autorizações Ativas</t>
+  </si>
+  <si>
+    <t>Pix Automático - Verificar Agendamentos</t>
+  </si>
+  <si>
+    <t>Pix Automático - Listar Histórico de Autorizações</t>
+  </si>
+  <si>
+    <t>RNF</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Alterar funcionalidade para contas PJ Privada e Governo SIDEC e NSGD STS/STM:
-</t>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Alteração da mensagem existente para mensagem personalizada em todos os itens do Menu de gestão das autorizações, quando não existirem registros a serem expostos.
+O novo padrão em </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
+        <u/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Manutenção Adaptativa
-</t>
+      <t>Autorizar Pendência</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>- Alterar o pacote sinbc-ecobranca do JBOSS para a versão 7.4.
-- Alterar o Java para a versão 8.
-- Atualização Java
-	A definição de qual versão do Java utilizar, em projetos gerenciados pelo Maven, se dá através das propriedades maven.compiler.source e maven.compiler.target.
-•	Original
-◦	maven.compiler.source = 1.7
-◦	maven.compiler.target = 1.7
-•	Atualizada
-◦	maven.compiler.source = 1.8
-◦	maven.compiler.target = 1.8</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir funcionalidade para:
-Permitir inclusão da Pendência de Cancelamento de Autorização Ativa do Pix Automático através do fluxo do Histórico de Autorizações, com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /pix/automatico-autorizacoes/v1/autorizacoes)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incluir funcionalidade para:
-Permitir autorização da Pendência para cancelamento da Autorização Ativa do Pix Automático com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /assinatura-multipla/v2/contas/{id_conta}/transacoes/{nsuTransacao}/assinaturas)
-</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante de Autorização da Pendência para Cancelamento da Autorização Ativa do Pix Automático.</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Desenvolvimento da funcionalidade de impressão do comprovante da ação de cancelar a Pendência do Cancelamento do Agendamento do Pix Automático.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNF
-</t>
-  </si>
-  <si>
-    <t>HU 22714253
-SIGCX_22714253_Pix_Automático_Histórico_de_Autorizações_Cancelar_STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU 22714253
-SIGCX_22714253_Pix_Automático_Histórico_de_Autorizações_Cancelar_STM_Imprimir_Comprovante
-</t>
-  </si>
-  <si>
-    <t>HU 22714253
-SIGCX_22714253_Transações_Pendentes_Histórico_de_Autorizações_Autorizar_Pendência_Cancelamento_STM</t>
-  </si>
-  <si>
-    <t>HU 22714253
-SIGCX_22714253_Transações_Pendentes_Histórico_de_Autorizações_Autorizar_Pendência_Cancelamento_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>HU 22714253
-SIGCX_22714253_Transações_Pendentes_Histórico_de_Autorizações_Cancelar_Pendência_Cancelamento_STM</t>
-  </si>
-  <si>
-    <t>HU 22714253
-SIGCX_22714253_Transações_Pendentes_Histórico_de_Autorizações_Cancelar_Pendência_Cancelamento_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU 22714253
-SIGCX_22714253_Transações_Pendentes_Histórico_de_Autorizações_Detalhar_Pendência_Cancelamento_STM
-</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Pix_Automático_Autorizações_Pendentes_Rejeitar_Autorização_Pendente_STM</t>
-  </si>
-  <si>
-    <t>Incluir funcionalidade para:
-Permitir inclusão da Pendência da Rejeição de Autorização Pendente do +FuncionalidadesImpactadas[@[Funcionalidade]:[Descrição da Mudança]]Pix Automático através do fluxo de Autorizações Pendentes do Pix Automático, com conta que exija Senha de Transação Múltipla (STM).
-Efetivação da transação através do Sistema Externo SIMTX (Endpoint /pix/automatico-autorizacoes/v1/autorizacoes/rejeitar)</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Pix_Automático_Autorizações_Pendentes_Rejeitar_Autorização_Pendente_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Autorizar_Pendência_Rejeição_STM</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Autorizar_Pendência_Rejeição_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <r>
-      <t>Transações Pendentes -  Pix Automático/Autorizações Pendentes Autorizar Pendência Rejeição - STM - Imprimir Comprovante</t>
+      <t xml:space="preserve"> será exibido conforme abaixo:
+"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Detalhar_Pendência_Rejeição_STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transações Pendentes -  Pix Automático/Autorizações Pendentes - Detalhar Pendência Rejeição - STM
-</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Cancelar_Pendência_Rejeição_STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transações Pendentes -  Pix Automático/Autorizações Pendentes - Cancelar Pendência Rejeição - STM
-</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Cancelar_Pendência_Rejeição_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transações Pendentes - Pix Automático/Autorizações Pendentes - Cancelar Pendência Rejeição - STM - Imprimir Comprovante
-</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Pix_Automático_Autorizações_Pendentes_Confirmar_Autorização_Pendente_STM</t>
-  </si>
-  <si>
-    <t>Pix Automático - Autorizações Pendentes - Confirmar Autorização Pendente - STM</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Pix_Automático_Autorizações_Pendentes_Confirmar_Autorização_Pendente_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Pix Automático - Autorizações Pendentes - Confirmar Autorização Pendente - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_ Autorizar_Confirmação_STM</t>
-  </si>
-  <si>
-    <t>Transações Pendentes - Pix Automático/Autorizações Pendentes - Autorizar Confirmação - STM</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Autorizar_Confirmação_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <r>
-      <t>Transações Pendentes -  Pix Automático/Autorizações Pendentes - Autorizar Confirmação - STM - Imprimir Comprovante</t>
+      <t>No momento, não existem pedidos de autorização pendentes para Pix Automático.</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Por favor, confira se está utilizando a conta correta e realize nova consulta, se pertinente."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Alteração da mensagem existente para mensagem personalizada em todos os itens do Menu de gestão das autorizações, quando não existirem registros a serem expostos.
+O novo padrão em </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Detalhar_Pendência_STM</t>
-  </si>
-  <si>
-    <t>Transações Pendentes -  Pix Automático/Autorizações Pendentes - Detalhar Pendência - STM</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Cancelar_Pendência_STM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transações Pendentes -  Pix Automático/Autorizações Pendentes - Cancelar Pendência - STM
-</t>
-  </si>
-  <si>
-    <t>HU 22712695
-SIGCX_22712695_Transações_Pendentes_Pix_Automático-Autorizações Pendentes_Cancelar_Pendência_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transações Pendentes - Pix Automático/Autorizações Pendentes - Cancelar Pendência - STM - Imprimir Comprovante
-</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Incluir_Pendência_Cancelamento_STM</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Incluir Pendência de Cancelamento - STM</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Incluir_Pendência_Cancelamento_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Incluir Pendência de Cancelamento - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Autorizar_Pendência_Cancelamento_STM</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Autorizar Pendência de Cancelamento - STM</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Autorizar_Pendência_Cancelamento_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Autorizar Pendência de Cancelamento - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Detalhar_Pendência_Cancelamento_STM</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Detalhar Pendência de Cancelamento - STM</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Cancelar_Pendência_Cancelamento_STM</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Cancelar Pendência de Cancelamento - STM</t>
-  </si>
-  <si>
-    <t>HU 22713971
-SIGCX_22713971_Pix_Automático_Pagamentos_Agendados_Cancelar_Pendência_Cancelamento_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Pix Automático - Pagamentos Agendados - Cancelar Pendência de Cancelamento - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Pix Automático_Leitura_ QRCode_Oferta_de_Recorrência_Incluir_Pendência_STM</t>
-  </si>
-  <si>
-    <t>Pix Automático - Leitura QR Code de Oferta de Recorrência - Incluir Pendência - STM</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Pix Automático_Leitura_ QRCode_Oferta_de_Recorrência_Incluir_Pendência_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Pix Automático - Leitura QR Code de Oferta de Recorrência - Incluir Pendência - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Transações_Pendentes_Leitura_ QRCode_Oferta_de_Recorrência_Autorizar_Pendência_STM</t>
-  </si>
-  <si>
-    <t>Transações Pendentes - Leitura QR Code de Oferta de Recorrência - Autorizar Pendência - STM</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Transações_Pendentes_Leitura_ QRCode_Oferta_de_Recorrência_Autorizar_Pendência_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Transações Pendentes - Leitura QR Code de Oferta de Recorrência - Autorizar Pendência - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Transações_Pendentes_Leitura_ QRCode_Oferta_de_Recorrência_Detalhar_Pendência_STM</t>
-  </si>
-  <si>
-    <t>Transações Pendentes - Leitura QR Code de Oferta de Recorrência - Detalhar Pendência - STM</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Transações_Pendentes_Leitura_ QRCode_Oferta_de_Recorrência_Cancelar_Pendência_STM</t>
-  </si>
-  <si>
-    <t>Transações Pendentes - Leitura QR Code de Oferta de Recorrência - Cancelar Pendência - STM</t>
-  </si>
-  <si>
-    <t>HU 23312216
-SIGCX_23312216_Transações_Pendentes_Leitura_ QRCode_Oferta_de_Recorrência_Cancelar_Pendência_STM_Imprimir_Comprovante</t>
-  </si>
-  <si>
-    <t>Transações Pendentes - Leitura QR Code de Oferta de Recorrência - Cancelar Pendência - STM - Imprimir Comprovante</t>
-  </si>
-  <si>
-    <t>HU 23712686
-SIGCX_23712686_Pix_Automático_Pagador</t>
-  </si>
-  <si>
-    <t>HU 23713933   
-SIGCX_23713933_Pix_Extrato_e_Devolução</t>
-  </si>
-  <si>
-    <t>HU 23713513
-SIGCX_23713513_Open_Finance_Movimentações_Automáticas</t>
-  </si>
-  <si>
-    <t>HU 23374482
-SIGCX_23374482_Autorização de Pix Automático</t>
-  </si>
-  <si>
-    <t>Criar Outorga de Procurador Consultor em Contas sem Senha de Transação</t>
-  </si>
-  <si>
-    <t>E/S, RN/LP, EAD, RNF</t>
-  </si>
-  <si>
-    <r>
-      <t>Descrição Geral:</t>
+      <t>Listar Histórico de Autorizações</t>
     </r>
     <r>
       <rPr>
@@ -1163,28 +474,430 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Criação de nova funcionalidade na opção </t>
+      <t xml:space="preserve"> será exibido conforme abaixo:</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Contas da Empresa &gt; Procuração Eletrônica &gt; Gerenciar &gt; Cadastrar Novo Procurador</t>
+      <t>No momento, esta conta não possui registro de histórico de autorizações de Pix Automático.</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Por favor, confira se está utilizando a conta correta e realize nova consulta, se pertinente."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Alteração da mensagem existente para mensagem personalizada em todos os itens do Menu de gestão das autorizações, quando não existirem registros a serem expostos.
+O novo padrão em </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, permitindo a criação de outorgas com o perfil </t>
+      <t>Consultar Autorizações Ativas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> será exibido conforme abaixo:
+"</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No momento, esta conta não possui autorizações ativas de Pix Automático.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Por favor, confira se está utilizando a conta correta e realize nova consulta, se pertinente."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Alteração da mensagem existente para mensagem personalizada em todos os itens do Menu de gestão das autorizações, quando não existirem registros a serem expostos.
+O novo padrão em </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verificar Agendamentos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> será exibido conforme abaixo:
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No momento, esta conta não possui agendamentos do Pix Automático.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+Por favor, confira se está utilizando a conta correta e realize nova consulta, se pertinente."</t>
+    </r>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Listar Permissões</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Suspender Acesso Vigente</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Ativar Acesso Suspenso</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Revogar Acesso Suspenso</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Revogar Acesso Vigente</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Excluir Acesso Suspenso</t>
+  </si>
+  <si>
+    <t>E/S
+RN/LP</t>
+  </si>
+  <si>
+    <t>Incluir funcionalidade para:
+Desenvolvimento da funcionalidade de impressão do comprovante de Procuração Eletrônica.</t>
+  </si>
+  <si>
+    <t>Alterar funcionalidade para:
+Criação do fluxo completo de gestão de outorgas do perfil Procurador Consultor, permitindo suspender (ativar/revogar), revogar e excluir acessos pendentes.
+Foi incluído o tratamento para que o perfil consultor seja exibido no gerenciamento da procuração ativa.
+- Não é necessário chamar o módulo de senha de transação para finalizar a suspensão e revogação do procurador consultor.
+- No caso de contas de Senha de Transação Múltipla (STM), a suspensão e revogação será feita apenas por um representante.
+- A suspensão (ativar / revogar), revogação e gestão de acesso pendente (excluir) com o mesmo fluxo dos outros perfis de Procuradores.</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Suspender Acesso Vigente - Imprimir Comprovante</t>
+  </si>
+  <si>
+    <t>Incluir funcionalidade para:
+Desenvolvimento da funcionalidade de impressão do comprovante de Suspensão de Procuração Eletrônica.</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Ativar Acesso Suspenso - Imprimir Comprovante</t>
+  </si>
+  <si>
+    <t>Incluir funcionalidade para:
+Desenvolvimento da funcionalidade de impressão do comprovante de Ativação de Procuração Eletrônica.</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Revogar Acesso Suspenso - Imprimir Comprovante</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Revogar Acesso Vigente - Imprimir Comprovante</t>
+  </si>
+  <si>
+    <t>Gerenciar Permissões e Acessos - Excluir Acesso Suspenso - Imprimir Comprovante</t>
+  </si>
+  <si>
+    <t>Incluir funcionalidade para:
+Desenvolvimento da funcionalidade de impressão do comprovante de Revogação de Procuração Eletrônica.</t>
+  </si>
+  <si>
+    <t>Incluir funcionalidade para:
+Desenvolvimento da funcionalidade de impressão do comprovante de Exclusão de Procuração Eletrônica.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Permitir a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>suspensão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> de procuração cadastrada com o novo perfil de Procurador Consultor, que esteja com o seu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acesso vigente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.
+- Não é necessário chamar o módulo de senha de transação para finalizar a suspensão do procurador consultor.
+- No caso de contas de Senha de Transação Múltipla (STM), a suspensão será feita apenas por um representante.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Permitir a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ativação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> de procuração eletrônica cadastrada com o novo perfil de Procurador Consultor, que esteja com seu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acesso suspenso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.
+- Não é necessário chamar o módulo de senha de transação para finalizar a ativação do procurador consultor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Permitir a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>revogação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> de procuração eletrônica cadastrada com o novo perfil de Procurador Consultor, que esteja com o seu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acesso suspenso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.
+- Não é necessário chamar o módulo de senha de transação para finalizar a revogação do procurador consultor.
+- No caso de contas de Senha de Transação Múltipla (STM), a revogação será feita apenas por um representante.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Permitir a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>revogação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> de procuração eletrônica cadastrada com o novo perfil de Procurador Consultor, que esteja com o seu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> acesso vigente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.
+- Não é necessário chamar o módulo de senha de transação para finalizar a revogação do procurador consultor.
+- No caso de contas de Senha de Transação Múltipla (STM), a revogação será feita apenas por um representante.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alterar funcionalidade para:
+Permitir a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>exclusão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> de procuração eletrônica cadastrada com o novo perfil de Procurador Consultor, que esteja com o seu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>acesso suspenso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.
+- Não é necessário chamar o módulo de senha de transação para finalizar a exclusão do procurador consultor suspenso.</t>
+    </r>
+  </si>
+  <si>
+    <t>HU 23797088
+SIGCX_23797088_Pix_Automático_Autorizar_Pendências</t>
+  </si>
+  <si>
+    <t>HU 23797088
+SIGCX_23797088_Pix_Automático_Consultar_Autorizações_Ativas</t>
+  </si>
+  <si>
+    <t>HU 23797088
+SIGCX_23797088_Pix_Automático_Verificar_Agendamentos</t>
+  </si>
+  <si>
+    <t>HU 23797088
+SIGCX_23797088_Pix_Automático_Listar_Histórico_de_Autorizações</t>
+  </si>
+  <si>
+    <t>Procuração Eletrônica - Cadastrar Novo procurador</t>
+  </si>
+  <si>
+    <t>Procuração Eletrônica - Cadastrar Novo procurador - Imprimir Comprovante</t>
+  </si>
+  <si>
+    <t>HU 23632176
+SIGCX_23632176_Procuracao_Eletronica_Cadastrar_Novo_Procurador</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Alterar funcionalidade para:
+Criação do tipo de perfil </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1195,199 +908,70 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve"> a ser utilizada em contas que não possuem Senha de Transação.
+O perfil deverá obedecer as seguintes regras:
+- Não é necessário chamar o modulo de senha de transação para finalizar a criação da procuração com o perfil consultor.
+- No caso de contas de Senha de Transação Múltipla (STM), a outorga do perfil será feita apenas por um representante.
+- "Procurador Consultor" possui acesso restrito aos serviços não financeiros - sem alçada de valores.
+- Quando selecionar um Tipo de Perfl diferente de "Consultor", exemplo: "Digitador", ao avançar e selecionar os serviços o sistema deve exibir um campo para digitação do valor máximo de alçada.
+- Para que os perfis "Digitador" e "Autorizador" sejam exibidos, o cliente deverá estar logado com um usuário que exija assinatura eletrônica. O único perfil que não exige assinatura eletrônica é o de "Consultor".</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>E/S:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Implementação de novos campos no formulário de criação de procurador: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>CPF do Procurador</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Tipo de Perfil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (inclusão da opção "Procurador Consultor"), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Contas elegíveis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (apenas contas sem senha de transação) e </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>Serviços permitidos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (somente serviços não financeiros).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RN/LP:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Lógica de restrição para exibir apenas contas sem senha de transação; validação de perfil restrito a ações de consulta; geração automática de usuário e senha para o novo procurador após confirmação; desnecessidade de validação via módulo de senha de transação; validação de RLA com senha simples ou múltipla (SIDEC/NSGD).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EAD:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Criação de nova integração com o </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>SIPER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> para registro de outorga com perfil consultor (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial Unicode MS"/>
-      </rPr>
-      <t>novo tipo de perfil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>); gravação de dados de associação CPF ↔ Conta ↔ Perfil Consultor.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RNF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Adaptação da interface para comportamento responsivo e consistente com o protótipo do Figma; compatibilidade para diferentes tamanhos de janela de navegador.</t>
-    </r>
-  </si>
-  <si>
-    <t>23632176 – SIGCX - Procuração Eletrônica_Perfil Procurador Consultor</t>
-  </si>
-  <si>
-    <t>Suspender, Revogar e Excluir Outorga de Procurador Consultor</t>
-  </si>
-  <si>
-    <t>23925732 – SIGCX - Procuração Eletrônica_Procurador Consultor - Suspender, Revogar e Excluir</t>
-  </si>
-  <si>
-    <t>Exibir Mensagens de Lista Vazia nas Telas do Pix Automático (Pagador)</t>
-  </si>
-  <si>
-    <t>E/S, RN/LP, RNF</t>
-  </si>
-  <si>
-    <t>23797088 – SIGCX - Evolutiva Pix Automático-Pagador - Lista Vazia</t>
-  </si>
-  <si>
-    <t>Descrição Geral: Criação de nova funcionalidade na opção Contas da Empresa &gt; Procuração Eletrônica &gt; Gerenciar &gt; Cadastrar Novo Procurador, permitindo a criação de outorgas com o perfil Procurador Consultor.
-E/S: Implementação de novos campos no formulário de criação de procurador: CPF do Procurador, Tipo de Perfil (inclusão da opção 'Procurador Consultor'), Contas elegíveis (apenas contas sem senha de transação) e Serviços permitidos (somente serviços não financeiros).
-RN/LP: Lógica de restrição para exibir apenas contas sem senha de transação; validação de perfil restrito a ações de consulta; geração automática de usuário e senha para o novo procurador após confirmação; desnecessidade de validação via módulo de senha de transação; validação de RLA com senha simples ou múltipla (SIDEC/NSGD).
-EAD: Criação de nova integração com o SIPER para registro de outorga com perfil consultor (novo tipo de perfil); gravação de dados de associação CPF ↔ Conta ↔ Perfil Consultor.
-RNF: Adaptação da interface para comportamento responsivo e consistente com o protótipo do Figma; compatibilidade para diferentes tamanhos de janela de navegador.</t>
-  </si>
-  <si>
-    <t>Descrição Geral: Criação do fluxo completo de gestão de outorgas do perfil Procurador Consultor, permitindo suspender (ativar/revogar), revogar e excluir acessos pendentes.
-E/S: Inclusão de botões nas seções Acessos Vigentes, Acessos Suspensos e Acessos Pendentes: Suspender, Ativar, Revogar e Excluir; atualização dinâmica das listas conforme ação realizada.
-RN/LP: Implementação das lógicas de transição de status (vigente → suspenso → revogado); exclusão de acessos pendentes; dispensa de senha de transação para operações com perfil consultor; em contas com senha múltipla (STM), operação realizada por um único representante; utilização do mesmo fluxo de outros perfis de procuradores.
-EAD: Integração com SIMCV para registro das ações de suspensão e revogação (Códigos 20164 e 20175); integração com SIPER para controle dos eventos de suspensão e revogação de contas outorgadas (Códigos 0501 e 0502).
-RNF: Interface responsiva para diferentes resoluções; consistência visual com demais telas da Procuração Eletrônica.</t>
-  </si>
-  <si>
-    <t>Descrição Geral: Evolução das telas do módulo Pix Automático (Pagador) para apresentar mensagens personalizadas quando não houver registros nas listagens de autorizações, agendamentos ou histórico.
-E/S: Inserção de mensagens descritivas nas telas dos menus: Autorizar Pendências, Consultar Autorizações Ativas, Verificar Agendamentos e Listar Histórico de Autorizações.
-RN/LP: Lógica condicional para exibir mensagem apenas quando o retorno das APIs for vazio (sem registros). As mensagens orientam o usuário a verificar a conta ou realizar nova consulta.
-RNF: Uso da mesma imagem e layout do fluxo de Pix Automático Recebedor conforme Figma; garantia de responsividade e experiência unificada entre menus.</t>
+    <t>HU 23632176
+SIGCX_23632176_Procuracao_Eletronica_Cadastrar_Novo_Procurador_Imprimir_Comprovante</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_e_Acessos_Listar_Permissões</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Suspender_Acesso_Vigente</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Suspender_Acesso_Vigente_Imprimir_Comprovante</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Ativar Acesso_Suspenso</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Ativar Acesso_Suspenso_Imprimir_Comprovante</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Revogar_Acesso_Suspenso</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Revogar_Acesso_Suspenso_Imprimir_Comprovante</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Revogar_Acesso_Vigente</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Revogar_Acesso_Vigente_Imprimir_Comprovante</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Excluir_Acesso_Suspenso</t>
+  </si>
+  <si>
+    <t>HU 23925732
+SIGCX_23925732_Gerenciar_Permissões_Excluir_Acesso_Suspenso_Imprimir_Comprovante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="32">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1567,17 +1151,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <i/>
+      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2108,7 +1690,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2229,29 +1811,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2313,6 +1898,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2322,24 +1916,15 @@
     <xf numFmtId="0" fontId="23" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="40" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2355,14 +1940,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2409,7 +1994,7 @@
     <cellStyle name="Título 4" xfId="38" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="39" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="39">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2431,812 +2016,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color rgb="FFFFFFFF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -4028,7 +2807,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="77"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4148,85 +2927,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3436FF3F-C340-4648-9C1B-8D04B0656415}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="47625" y="76200"/>
-          <a:ext cx="1657350" cy="242888"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>271463</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -4289,7 +2989,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4368,7 +3068,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4455,54 +3155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EDDAA56-6E2C-45BD-AE74-542D276E6014}" name="FuncionalidadesImpactadas2" displayName="FuncionalidadesImpactadas2" ref="A3:R42" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" headerRowBorderDxfId="37">
-  <autoFilter ref="A3:R42" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-    <filterColumn colId="9" hiddenButton="1"/>
-    <filterColumn colId="10" hiddenButton="1"/>
-    <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
-    <filterColumn colId="14" hiddenButton="1"/>
-    <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0FB8C9F4-C5CA-48BC-95A0-5688667F732F}" name="Funcionalidade" dataDxfId="35" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{8081A09B-76E4-4705-AF07-D59CBB6FCD26}" name="Tipo de_x000a_Mudança na_x000a_Funcionalidade" dataDxfId="33" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{3A347E07-0E0D-4367-837D-868200FDCE78}" name="Itens Afetados " dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{607721C4-3268-49AB-A8B9-F577AF4ACD6B}" name="Descrição da Mudança" dataDxfId="29" totalsRowDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{5D43ECF3-0427-44D5-9FB3-6DF012FB4D17}" name="Artefato" dataDxfId="27" totalsRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{9C337CB2-2184-4AC6-BD97-EAB79A11A6DA}" name="Localização dos Artefatos" dataDxfId="25" totalsRowDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{EC75CA55-842D-4B15-92D3-7344098984F4}" name="Versão do Artefato" dataDxfId="23" totalsRowDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{DDAC6C9B-1412-4745-82FC-F8818D0F1036}" name="Tipo de Mudança no Artefato" dataDxfId="21" totalsRowDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{68203862-B47A-40BF-8E23-C2D274785F56}" name="Tabela Impactada" dataDxfId="19" totalsRowDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{64384B6E-ADBD-42F7-B48A-29548490DCF4}" name="Tipo de Impacto" dataDxfId="17" totalsRowDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{F244EF81-267D-45A6-99BE-4438A01D0186}" name="Descrição da Mudança na Tabela" dataDxfId="15" totalsRowDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{2B5EF1A8-2A60-425E-8D33-091BBCFE101E}" name="Coluna1" dataDxfId="13" totalsRowDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{D44BE9FA-3682-4A7D-A2F3-63751E71C9BF}" name=" " dataDxfId="11" totalsRowDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{3869E01A-1531-44A9-845F-518FAA3E447D}" name="  " dataDxfId="9" totalsRowDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{73E3D7EF-10CE-4554-AA87-3B0E1EF2B6BD}" name="   " dataDxfId="7" totalsRowDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{2C257558-5B2F-4772-BB32-D7BEFC7A4784}" name="    " dataDxfId="5" totalsRowDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{DF796B56-BE12-4B4B-B01E-39B767AEC67C}" name="     " dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{F20964E7-9421-4B24-8807-D82EA0640269}" name="      " dataDxfId="1" totalsRowDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="FuncionalidadesImpactadas" displayName="FuncionalidadesImpactadas" ref="A3:R6" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75">
-  <autoFilter ref="A3:R6" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="FuncionalidadesImpactadas" displayName="FuncionalidadesImpactadas" ref="A3:R20" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36">
+  <autoFilter ref="A3:R20" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4524,23 +3178,23 @@
   </autoFilter>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Funcionalidade" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tipo de_x000a_Mudança na_x000a_Funcionalidade" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Itens Afetados " dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descrição da Mudança" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Artefato" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Localização dos Artefatos" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Versão do Artefato" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo de Mudança no Artefato" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tabela Impactada" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tipo de Impacto" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Descrição da Mudança na Tabela" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna1" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name=" " dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="  " dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="   " dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="    " dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="     " dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="      " dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tipo de_x000a_Mudança na_x000a_Funcionalidade" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Itens Afetados " dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descrição da Mudança" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Artefato" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Localização dos Artefatos" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Versão do Artefato" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo de Mudança no Artefato" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tabela Impactada" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tipo de Impacto" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Descrição da Mudança na Tabela" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna1" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name=" " dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="  " dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="   " dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="    " dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="     " dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="      " dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4825,36 +3479,36 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A3" dT="2021-07-18T21:22:04.64" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{A072664C-3096-4922-8636-81996A0ECBA6}">
+  <threadedComment ref="A3" dT="2021-07-18T21:22:04.64" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{A072664C-3096-4923-8636-81996A0ECBA6}">
     <text>Informar o nome da funcionalidade, conforme registrada no requisitos/caso de uso. Caso não haja requisito/caso de uso, identificar a funcionalidade conforme entendimento do gestor (visão de negócio).</text>
   </threadedComment>
-  <threadedComment ref="B3" dT="2021-07-18T21:22:44.99" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{C940C3E4-4D9F-46D0-B234-1BADFB8FA04C}">
+  <threadedComment ref="B3" dT="2021-07-18T21:22:44.99" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{C940C3E4-4D9F-46D1-B234-1BADFB8FA04C}">
     <text>Indicar se a funcionalidade está sendo incluída ( I ), alterada ( A ), excluída ( E ) ou (EV) envolvido.
 Nos casos de atendimento de defeitos, selecionar a opção D.</text>
   </threadedComment>
-  <threadedComment ref="C3" dT="2021-07-18T21:26:36.57" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{D794F76F-FABA-4F42-8DB0-9A0CBAE307B4}">
+  <threadedComment ref="C3" dT="2021-07-18T21:26:36.57" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{D794F76F-FABA-4F43-8DB0-9A0CBAE307B4}">
     <text>Relatar quais dos itens relacionados abaixo são afetados pela demanda: E/S, RN/LP, EAD e RNF.</text>
   </threadedComment>
-  <threadedComment ref="D3" dT="2021-07-18T21:27:11.52" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{6A9BFD52-E62B-4934-B4D7-FEE0A53AD7EE}">
+  <threadedComment ref="D3" dT="2021-07-18T21:27:11.52" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{6A9BFD52-E62B-4935-B4D7-FEE0A53AD7EE}">
     <text>Descrever de forma clara e objetiva a mudança que será realizada na funcionalidade.</text>
   </threadedComment>
-  <threadedComment ref="E3" dT="2021-07-18T21:21:16.75" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{AE51634A-12A0-46A3-B574-E3B08E510CF4}">
+  <threadedComment ref="E3" dT="2021-07-18T21:21:16.75" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{AE51634A-12A0-46A4-B574-E3B08E510CF4}">
     <text>Informar o nome do caso de uso, estória, registro de requisito funcional ou outro artefato de requisito afetado pela mudança.</text>
   </threadedComment>
-  <threadedComment ref="F3" dT="2021-07-18T21:28:05.88" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{4B2092BF-C0BC-4C4A-8ABF-3A4EB8D7A04A}">
+  <threadedComment ref="F3" dT="2021-07-18T21:28:05.88" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{4B2092BF-C0BC-4C4B-8ABF-3A4EB8D7A04A}">
     <text>Preencher com o endereço lógico ou físico do artefato da funcionalidade.</text>
   </threadedComment>
-  <threadedComment ref="G3" dT="2021-07-18T21:21:44.81" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{86F89E1D-26C5-46F1-8490-D4C91E21D6D2}">
+  <threadedComment ref="G3" dT="2021-07-18T21:21:44.81" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{86F89E1D-26C5-46F2-8490-D4C91E21D6D2}">
     <text>Informar a versão do artefato publicada no repositório de controle de configuração do sistema.</text>
   </threadedComment>
-  <threadedComment ref="H3" dT="2021-07-18T21:28:49.78" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{4D842DF6-0E24-4FA5-8559-8F9DC95A00DD}">
+  <threadedComment ref="H3" dT="2021-07-18T21:28:49.78" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{4D842DF6-0E24-4FA6-8559-8F9DC95A00DD}">
     <text>Informar se o artefato (caso de uso ou requisito) está sendo Incluído (I), Alterado (A) ou  Excluído (E).
 Neste contexto, o artefato se trata do documento físico.</text>
   </threadedComment>
-  <threadedComment ref="I3" dT="2021-07-18T21:29:29.44" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{02041CEC-C68E-403D-84D6-8EC1A94EBA2D}">
+  <threadedComment ref="I3" dT="2021-07-18T21:29:29.44" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{02041CEC-C68E-403E-84D6-8EC1A94EBA2D}">
     <text>Especificar os nomes das tabelas afetadas pela mudança que ocorrerá na funcionalidade.</text>
   </threadedComment>
-  <threadedComment ref="J3" dT="2021-07-18T21:29:50.99" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{B445304C-117C-4124-8E2E-EAF809E30D28}">
+  <threadedComment ref="J3" dT="2021-07-18T21:29:50.99" personId="{3D91EEA8-4687-4D84-B04B-810989AE3E52}" id="{B445304C-117C-4125-8E2E-EAF809E30D28}">
     <text>Especificar o tipo de alteração física realizada na base de dados: Inclusão (I), Alteração (A), Exclusão (E) de tabelas ou em sua estrutura (inclusão, alteração ou exclusão de atributos).</text>
   </threadedComment>
 </ThreadedComments>
@@ -4868,166 +3522,166 @@
   <dimension ref="B2:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B16" sqref="B16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="64" t="s">
+    <row r="2" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+    <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="5">
         <f ca="1">NOW()</f>
-        <v>45951.619182870367</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1">
+        <v>45954.925228125001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="19.5" customHeight="1"/>
-    <row r="9" spans="2:9" ht="15">
+    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="2:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="13" t="s">
         <v>61</v>
       </c>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="12" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="51"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="13" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="51"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:9" ht="15">
+    <row r="15" spans="2:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="49.15" customHeight="1">
-      <c r="B16" s="56" t="s">
+    <row r="16" spans="2:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="2:6" ht="15">
+    <row r="19" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="182.25" customHeight="1">
-      <c r="B20" s="61"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="2:6">
+    <row r="20" spans="2:6" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F21" s="8" t="s">
         <v>17</v>
       </c>
@@ -5063,68 +3717,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093A130A-4EF7-4704-98A7-2177F6B02A40}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Planilha4">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="76.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="37" style="9" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="9" customWidth="1"/>
     <col min="13" max="18" width="5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="73" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="70" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-    </row>
-    <row r="3" spans="1:18" ht="44.25">
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+    </row>
+    <row r="3" spans="1:18" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -5180,27 +3834,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A4" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>67</v>
+    <row r="4" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>39</v>
@@ -5222,27 +3876,27 @@
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>67</v>
+      <c r="C5" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>39</v>
@@ -5264,27 +3918,27 @@
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
     </row>
-    <row r="6" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>67</v>
+    <row r="6" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>39</v>
@@ -5306,27 +3960,27 @@
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
     </row>
-    <row r="7" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A7" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>67</v>
+    <row r="7" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>39</v>
@@ -5348,37 +4002,39 @@
       <c r="Q7" s="40"/>
       <c r="R7" s="40"/>
     </row>
-    <row r="8" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>67</v>
-      </c>
       <c r="G8" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -5388,27 +4044,27 @@
       <c r="Q8" s="40"/>
       <c r="R8" s="40"/>
     </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A9" s="85" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="45" t="s">
+    <row r="9" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>67</v>
+      <c r="D9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>39</v>
@@ -5430,27 +4086,27 @@
       <c r="Q9" s="40"/>
       <c r="R9" s="40"/>
     </row>
-    <row r="10" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A10" s="85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="C10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>67</v>
+      <c r="D10" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>39</v>
@@ -5472,27 +4128,27 @@
       <c r="Q10" s="40"/>
       <c r="R10" s="40"/>
     </row>
-    <row r="11" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A11" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>67</v>
+    <row r="11" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>39</v>
@@ -5514,27 +4170,27 @@
       <c r="Q11" s="40"/>
       <c r="R11" s="40"/>
     </row>
-    <row r="12" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A12" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>67</v>
+      <c r="C12" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>39</v>
@@ -5556,27 +4212,27 @@
       <c r="Q12" s="40"/>
       <c r="R12" s="40"/>
     </row>
-    <row r="13" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A13" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>67</v>
+    <row r="13" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>39</v>
@@ -5598,27 +4254,27 @@
       <c r="Q13" s="40"/>
       <c r="R13" s="40"/>
     </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A14" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>67</v>
+      <c r="C14" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H14" s="40" t="s">
         <v>39</v>
@@ -5640,39 +4296,39 @@
       <c r="Q14" s="40"/>
       <c r="R14" s="40"/>
     </row>
-    <row r="15" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A15" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="42" t="s">
+    <row r="15" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>67</v>
-      </c>
       <c r="G15" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" s="40" t="s">
         <v>39</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="42" t="s">
-        <v>66</v>
+        <v>39</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
@@ -5682,27 +4338,27 @@
       <c r="Q15" s="40"/>
       <c r="R15" s="40"/>
     </row>
-    <row r="16" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A16" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="40" t="s">
+    <row r="16" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>67</v>
+      <c r="C16" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H16" s="40" t="s">
         <v>39</v>
@@ -5724,27 +4380,27 @@
       <c r="Q16" s="40"/>
       <c r="R16" s="40"/>
     </row>
-    <row r="17" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A17" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>67</v>
+    <row r="17" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H17" s="40" t="s">
         <v>39</v>
@@ -5766,27 +4422,27 @@
       <c r="Q17" s="40"/>
       <c r="R17" s="40"/>
     </row>
-    <row r="18" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A18" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="43" t="s">
+    <row r="18" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
         <v>67</v>
       </c>
+      <c r="B18" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>64</v>
+      </c>
       <c r="G18" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H18" s="40" t="s">
         <v>39</v>
@@ -5808,27 +4464,27 @@
       <c r="Q18" s="40"/>
       <c r="R18" s="40"/>
     </row>
-    <row r="19" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
+    <row r="19" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H19" s="40" t="s">
         <v>39</v>
@@ -5850,27 +4506,27 @@
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
     </row>
-    <row r="20" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A20" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="42" t="s">
+    <row r="20" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>67</v>
+      <c r="B20" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" s="40" t="s">
         <v>39</v>
@@ -5892,942 +4548,19 @@
       <c r="Q20" s="40"/>
       <c r="R20" s="40"/>
     </row>
-    <row r="21" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A21" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A22" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-    </row>
-    <row r="23" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A23" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A24" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A25" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A26" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A27" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A28" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A29" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A30" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="1:18" s="41" customFormat="1" ht="312.60000000000002" customHeight="1">
-      <c r="A31" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="B31" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A33" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A34" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A35" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-    </row>
-    <row r="36" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A36" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-    </row>
-    <row r="37" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A37" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-    </row>
-    <row r="38" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A38" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-    </row>
-    <row r="39" spans="1:18" s="41" customFormat="1" ht="355.15" customHeight="1">
-      <c r="A39" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-    </row>
-    <row r="40" spans="1:18" s="41" customFormat="1" ht="363.6" customHeight="1">
-      <c r="A40" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-    </row>
-    <row r="41" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A41" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-    </row>
-    <row r="42" spans="1:18" s="41" customFormat="1" ht="352.9" customHeight="1">
-      <c r="A42" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="L2:R2"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:R2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B42" xr:uid="{31408FF3-12CF-4587-843A-81727809C0CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:K20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>"I,A,E,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"I,A,E,D,EV,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K7 K9:K14 I9:I14 K16:K21 K23:K28 I16:I21 I23:I28 I30:I35 K30:K35 K37:K42 I37:I42 H4:H42 J8:J42" xr:uid="{6421D1FD-8739-468A-B2EF-F409495F6CE6}">
-      <formula1>"I,A,E,N/A"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6841,275 +4574,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Planilha4">
-    <tabColor theme="8"/>
-  </sheetPr>
-  <dimension ref="A1:R6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="76.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" style="37" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="37" style="9" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="9" customWidth="1"/>
-    <col min="13" max="18" width="5" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-    </row>
-    <row r="3" spans="1:18" ht="44.25">
-      <c r="A3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A4" s="84" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-    </row>
-    <row r="5" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A5" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="I2:K2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:K6 H4:H6" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"I,A,E,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B6" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"I,A,E,D,EV,N/A"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Planilha5">
     <tabColor theme="8"/>
@@ -7120,30 +4584,30 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="10" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B1" s="73" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="77" t="s">
         <v>41</v>
       </c>
@@ -7152,7 +4616,7 @@
       <c r="I2" s="77"/>
       <c r="J2" s="77"/>
     </row>
-    <row r="3" spans="1:10" ht="60" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>42</v>
       </c>
@@ -7176,7 +4640,7 @@
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" thickTop="1">
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>44</v>
       </c>
@@ -7190,8 +4654,8 @@
       <c r="I4" s="34"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A5" s="76"/>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="26"/>
@@ -7202,8 +4666,8 @@
       <c r="I5" s="28"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A6" s="76"/>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="26"/>
@@ -7214,8 +4678,8 @@
       <c r="I6" s="28"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="27"/>
@@ -7228,8 +4692,8 @@
       <c r="I7" s="28"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A8" s="76"/>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="26"/>
@@ -7240,8 +4704,8 @@
       <c r="I8" s="28"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="26"/>
@@ -7252,8 +4716,8 @@
       <c r="I9" s="28"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="27"/>
@@ -7266,8 +4730,8 @@
       <c r="I10" s="28"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A11" s="76"/>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="79"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="26"/>
@@ -7278,8 +4742,8 @@
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A12" s="76"/>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="26"/>
@@ -7290,8 +4754,8 @@
       <c r="I12" s="28"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="76" t="s">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="27"/>
@@ -7304,8 +4768,8 @@
       <c r="I13" s="28"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="76"/>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="26"/>
@@ -7316,8 +4780,8 @@
       <c r="I14" s="28"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="76"/>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="26"/>
@@ -7328,8 +4792,8 @@
       <c r="I15" s="28"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="27"/>
@@ -7342,8 +4806,8 @@
       <c r="I16" s="28"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A17" s="76"/>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="26"/>
@@ -7354,8 +4818,8 @@
       <c r="I17" s="28"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="76"/>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="26"/>
@@ -7366,8 +4830,8 @@
       <c r="I18" s="28"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A19" s="76" t="s">
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="27"/>
@@ -7380,8 +4844,8 @@
       <c r="I19" s="28"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="76"/>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="26"/>
@@ -7392,8 +4856,8 @@
       <c r="I20" s="28"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A21" s="76"/>
+    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="26"/>
@@ -7404,8 +4868,8 @@
       <c r="I21" s="28"/>
       <c r="J21" s="26"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A22" s="76" t="s">
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="27"/>
@@ -7418,8 +4882,8 @@
       <c r="I22" s="28"/>
       <c r="J22" s="26"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A23" s="76"/>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -7430,8 +4894,8 @@
       <c r="I23" s="28"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A24" s="76"/>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
@@ -7442,8 +4906,8 @@
       <c r="I24" s="28"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A25" s="76"/>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
@@ -7454,8 +4918,8 @@
       <c r="I25" s="28"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A26" s="76" t="s">
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="27"/>
@@ -7468,8 +4932,8 @@
       <c r="I26" s="28"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A27" s="76"/>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="79"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="26"/>
@@ -7480,8 +4944,8 @@
       <c r="I27" s="28"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A28" s="76"/>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="26"/>
@@ -7494,16 +4958,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B1:E2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
@@ -7518,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -7529,117 +4993,117 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="64" t="s">
+    <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="24.75" customHeight="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+    <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="5">
         <f ca="1">NOW()</f>
-        <v>45951.619182870367</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="27" customHeight="1">
+        <v>45954.925228009262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="6" spans="2:6" ht="15">
-      <c r="B6" s="81" t="s">
+    <row r="6" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-    </row>
-    <row r="7" spans="2:6" ht="8.25" customHeight="1">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+    </row>
+    <row r="7" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:6" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="8" spans="2:6" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="3" customFormat="1" ht="29.25" customHeight="1">
+    <row r="9" spans="2:6" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <v>44552</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="2:6" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35">
         <v>44635</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="80"/>
+      <c r="E10" s="81"/>
       <c r="F10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="3" customFormat="1" ht="17.25" customHeight="1">
+    <row r="11" spans="2:6" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="35">
         <v>44676</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="80"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="36" t="s">
         <v>55</v>
       </c>
@@ -7665,12 +5129,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7882,12 +5346,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7899,11 +5363,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA88B144-6594-4A1C-9971-82DDC16FB416}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F453ED76-64E7-4173-B946-7986C3812662}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7929,9 +5391,11 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F453ED76-64E7-4173-B946-7986C3812662}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA88B144-6594-4A1C-9971-82DDC16FB416}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>